--- a/database/seeders/enderecos/xlsx/cidades/seed_cidades_pi.xlsx
+++ b/database/seeders/enderecos/xlsx/cidades/seed_cidades_pi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Ambiente de Trabalho\estagio\planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielmaia/Documents/Dev/sysgcm/database/seeders/enderecos/xlsx/cidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572236A3-E48D-4A02-970A-33531E60BF27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BFA25B-18FB-8145-8396-E6094E581195}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1367,16 +1367,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1400,9 +1394,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1708,20 +1701,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:D230"/>
+  <dimension ref="A1:D225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C1048574"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="A226" sqref="A226:F242"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>443</v>
       </c>
@@ -1735,7 +1728,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2200053</v>
       </c>
@@ -1746,7 +1739,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2200103</v>
       </c>
@@ -1757,7 +1750,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2200202</v>
       </c>
@@ -1768,7 +1761,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2200251</v>
       </c>
@@ -1779,7 +1772,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2200277</v>
       </c>
@@ -1790,7 +1783,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2200301</v>
       </c>
@@ -1801,7 +1794,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2200400</v>
       </c>
@@ -1812,7 +1805,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2200459</v>
       </c>
@@ -1823,7 +1816,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2200509</v>
       </c>
@@ -1834,7 +1827,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2200608</v>
       </c>
@@ -1845,7 +1838,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2200707</v>
       </c>
@@ -1856,7 +1849,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2200806</v>
       </c>
@@ -1867,7 +1860,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2200905</v>
       </c>
@@ -1878,7 +1871,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2200954</v>
       </c>
@@ -1889,7 +1882,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2201002</v>
       </c>
@@ -1900,7 +1893,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2201051</v>
       </c>
@@ -1911,7 +1904,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2201101</v>
       </c>
@@ -1922,7 +1915,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2201150</v>
       </c>
@@ -1933,7 +1926,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2201176</v>
       </c>
@@ -1944,7 +1937,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2201200</v>
       </c>
@@ -1955,7 +1948,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2201309</v>
       </c>
@@ -1966,7 +1959,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2201408</v>
       </c>
@@ -1977,7 +1970,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2201507</v>
       </c>
@@ -1988,7 +1981,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2201556</v>
       </c>
@@ -1999,7 +1992,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2201572</v>
       </c>
@@ -2010,7 +2003,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2201606</v>
       </c>
@@ -2021,7 +2014,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2201705</v>
       </c>
@@ -2032,7 +2025,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2201739</v>
       </c>
@@ -2043,7 +2036,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2201770</v>
       </c>
@@ -2054,7 +2047,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2201804</v>
       </c>
@@ -2065,7 +2058,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2201903</v>
       </c>
@@ -2076,7 +2069,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2201919</v>
       </c>
@@ -2087,7 +2080,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2201929</v>
       </c>
@@ -2098,7 +2091,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2201945</v>
       </c>
@@ -2109,7 +2102,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2201960</v>
       </c>
@@ -2120,7 +2113,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2201988</v>
       </c>
@@ -2131,7 +2124,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2202000</v>
       </c>
@@ -2142,7 +2135,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2202026</v>
       </c>
@@ -2153,7 +2146,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2202059</v>
       </c>
@@ -2164,7 +2157,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2202075</v>
       </c>
@@ -2175,7 +2168,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2202083</v>
       </c>
@@ -2186,7 +2179,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2202091</v>
       </c>
@@ -2197,7 +2190,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2202109</v>
       </c>
@@ -2208,7 +2201,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2202117</v>
       </c>
@@ -2219,7 +2212,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2202133</v>
       </c>
@@ -2230,7 +2223,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2202174</v>
       </c>
@@ -2241,7 +2234,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2202208</v>
       </c>
@@ -2252,7 +2245,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2202251</v>
       </c>
@@ -2263,7 +2256,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2202307</v>
       </c>
@@ -2274,7 +2267,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2202406</v>
       </c>
@@ -2285,7 +2278,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2202455</v>
       </c>
@@ -2296,7 +2289,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2202505</v>
       </c>
@@ -2307,7 +2300,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2202539</v>
       </c>
@@ -2318,7 +2311,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2202554</v>
       </c>
@@ -2329,7 +2322,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2202604</v>
       </c>
@@ -2340,7 +2333,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2202653</v>
       </c>
@@ -2351,7 +2344,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2202703</v>
       </c>
@@ -2362,7 +2355,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2202711</v>
       </c>
@@ -2373,7 +2366,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2202729</v>
       </c>
@@ -2384,7 +2377,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2202737</v>
       </c>
@@ -2395,7 +2388,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2202752</v>
       </c>
@@ -2406,7 +2399,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2202778</v>
       </c>
@@ -2417,7 +2410,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2202802</v>
       </c>
@@ -2428,7 +2421,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2202851</v>
       </c>
@@ -2439,7 +2432,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2202901</v>
       </c>
@@ -2450,7 +2443,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2203008</v>
       </c>
@@ -2461,7 +2454,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2203107</v>
       </c>
@@ -2472,7 +2465,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2203206</v>
       </c>
@@ -2483,7 +2476,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2203230</v>
       </c>
@@ -2494,7 +2487,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2203255</v>
       </c>
@@ -2505,7 +2498,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2203271</v>
       </c>
@@ -2516,7 +2509,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2203305</v>
       </c>
@@ -2527,7 +2520,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2203354</v>
       </c>
@@ -2538,7 +2531,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2203404</v>
       </c>
@@ -2549,7 +2542,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2203420</v>
       </c>
@@ -2560,7 +2553,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2203453</v>
       </c>
@@ -2571,7 +2564,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2203503</v>
       </c>
@@ -2582,7 +2575,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2203602</v>
       </c>
@@ -2593,7 +2586,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2203701</v>
       </c>
@@ -2604,7 +2597,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2203750</v>
       </c>
@@ -2615,7 +2608,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2203800</v>
       </c>
@@ -2626,7 +2619,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2203859</v>
       </c>
@@ -2637,7 +2630,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2203909</v>
       </c>
@@ -2648,7 +2641,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2204006</v>
       </c>
@@ -2659,7 +2652,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2204105</v>
       </c>
@@ -2670,7 +2663,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2204154</v>
       </c>
@@ -2681,7 +2674,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2204204</v>
       </c>
@@ -2692,7 +2685,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2204303</v>
       </c>
@@ -2703,7 +2696,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2204352</v>
       </c>
@@ -2714,7 +2707,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2204402</v>
       </c>
@@ -2725,7 +2718,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2204501</v>
       </c>
@@ -2736,7 +2729,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2204550</v>
       </c>
@@ -2747,7 +2740,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2204600</v>
       </c>
@@ -2758,7 +2751,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2204659</v>
       </c>
@@ -2769,7 +2762,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2204709</v>
       </c>
@@ -2780,7 +2773,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2204808</v>
       </c>
@@ -2791,7 +2784,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2204907</v>
       </c>
@@ -2802,7 +2795,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2205003</v>
       </c>
@@ -2813,7 +2806,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2205102</v>
       </c>
@@ -2824,7 +2817,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2205151</v>
       </c>
@@ -2835,7 +2828,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2205201</v>
       </c>
@@ -2846,7 +2839,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2205250</v>
       </c>
@@ -2857,7 +2850,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2205276</v>
       </c>
@@ -2868,7 +2861,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2205300</v>
       </c>
@@ -2879,7 +2872,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2205359</v>
       </c>
@@ -2890,7 +2883,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2205409</v>
       </c>
@@ -2901,7 +2894,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2205458</v>
       </c>
@@ -2912,7 +2905,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2205508</v>
       </c>
@@ -2923,7 +2916,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2205516</v>
       </c>
@@ -2934,7 +2927,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2205524</v>
       </c>
@@ -2945,7 +2938,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2205532</v>
       </c>
@@ -2956,7 +2949,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2205540</v>
       </c>
@@ -2967,7 +2960,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2205557</v>
       </c>
@@ -2978,7 +2971,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2205565</v>
       </c>
@@ -2989,7 +2982,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2205573</v>
       </c>
@@ -3000,7 +2993,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2205581</v>
       </c>
@@ -3011,7 +3004,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2205599</v>
       </c>
@@ -3022,7 +3015,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2205607</v>
       </c>
@@ -3033,7 +3026,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2205706</v>
       </c>
@@ -3044,7 +3037,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2205805</v>
       </c>
@@ -3055,7 +3048,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2205854</v>
       </c>
@@ -3066,7 +3059,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2205904</v>
       </c>
@@ -3077,7 +3070,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2205953</v>
       </c>
@@ -3088,7 +3081,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2206001</v>
       </c>
@@ -3099,7 +3092,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2206050</v>
       </c>
@@ -3110,7 +3103,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2206100</v>
       </c>
@@ -3121,7 +3114,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2206209</v>
       </c>
@@ -3132,7 +3125,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2206308</v>
       </c>
@@ -3143,7 +3136,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2206357</v>
       </c>
@@ -3154,7 +3147,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2206407</v>
       </c>
@@ -3165,7 +3158,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2206506</v>
       </c>
@@ -3176,7 +3169,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2206605</v>
       </c>
@@ -3187,7 +3180,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2206654</v>
       </c>
@@ -3198,7 +3191,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2206670</v>
       </c>
@@ -3209,7 +3202,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2206696</v>
       </c>
@@ -3220,7 +3213,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2206704</v>
       </c>
@@ -3231,7 +3224,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2206720</v>
       </c>
@@ -3242,7 +3235,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2206753</v>
       </c>
@@ -3253,7 +3246,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2206803</v>
       </c>
@@ -3264,7 +3257,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2206902</v>
       </c>
@@ -3275,7 +3268,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2206951</v>
       </c>
@@ -3286,7 +3279,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2207009</v>
       </c>
@@ -3297,7 +3290,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2207108</v>
       </c>
@@ -3308,7 +3301,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2207207</v>
       </c>
@@ -3319,7 +3312,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2207306</v>
       </c>
@@ -3330,7 +3323,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2207355</v>
       </c>
@@ -3341,7 +3334,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2207405</v>
       </c>
@@ -3352,7 +3345,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2207504</v>
       </c>
@@ -3363,7 +3356,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2207553</v>
       </c>
@@ -3374,7 +3367,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2207603</v>
       </c>
@@ -3385,7 +3378,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2207702</v>
       </c>
@@ -3396,7 +3389,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2207751</v>
       </c>
@@ -3407,7 +3400,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2207777</v>
       </c>
@@ -3418,7 +3411,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2207793</v>
       </c>
@@ -3429,7 +3422,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2207801</v>
       </c>
@@ -3440,7 +3433,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2207850</v>
       </c>
@@ -3451,7 +3444,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2207900</v>
       </c>
@@ -3462,7 +3455,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2207934</v>
       </c>
@@ -3473,7 +3466,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2207959</v>
       </c>
@@ -3484,7 +3477,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2208007</v>
       </c>
@@ -3495,7 +3488,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2208106</v>
       </c>
@@ -3506,7 +3499,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2208205</v>
       </c>
@@ -3517,7 +3510,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2208304</v>
       </c>
@@ -3528,7 +3521,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2208403</v>
       </c>
@@ -3539,7 +3532,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2208502</v>
       </c>
@@ -3550,7 +3543,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2208551</v>
       </c>
@@ -3561,7 +3554,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2208601</v>
       </c>
@@ -3572,7 +3565,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2208650</v>
       </c>
@@ -3583,7 +3576,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2208700</v>
       </c>
@@ -3594,7 +3587,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2208809</v>
       </c>
@@ -3605,7 +3598,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2208858</v>
       </c>
@@ -3616,7 +3609,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2208874</v>
       </c>
@@ -3627,7 +3620,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2208908</v>
       </c>
@@ -3638,7 +3631,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2209005</v>
       </c>
@@ -3649,7 +3642,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2209104</v>
       </c>
@@ -3660,7 +3653,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2209153</v>
       </c>
@@ -3671,7 +3664,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2209203</v>
       </c>
@@ -3682,7 +3675,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2209302</v>
       </c>
@@ -3693,7 +3686,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2209351</v>
       </c>
@@ -3704,7 +3697,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2209377</v>
       </c>
@@ -3715,7 +3708,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2209401</v>
       </c>
@@ -3726,7 +3719,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2209450</v>
       </c>
@@ -3737,7 +3730,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2209500</v>
       </c>
@@ -3748,7 +3741,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2209559</v>
       </c>
@@ -3759,7 +3752,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2209609</v>
       </c>
@@ -3770,7 +3763,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2209658</v>
       </c>
@@ -3781,7 +3774,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2209708</v>
       </c>
@@ -3792,7 +3785,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2209757</v>
       </c>
@@ -3803,7 +3796,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2209807</v>
       </c>
@@ -3814,7 +3807,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2209856</v>
       </c>
@@ -3825,7 +3818,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2209872</v>
       </c>
@@ -3836,7 +3829,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2209906</v>
       </c>
@@ -3847,7 +3840,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2209955</v>
       </c>
@@ -3858,7 +3851,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2209971</v>
       </c>
@@ -3869,7 +3862,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2210003</v>
       </c>
@@ -3880,7 +3873,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2210052</v>
       </c>
@@ -3891,7 +3884,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2210102</v>
       </c>
@@ -3902,7 +3895,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2210201</v>
       </c>
@@ -3913,7 +3906,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>2210300</v>
       </c>
@@ -3924,7 +3917,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2210359</v>
       </c>
@@ -3935,7 +3928,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2210375</v>
       </c>
@@ -3946,7 +3939,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2210383</v>
       </c>
@@ -3957,7 +3950,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2210391</v>
       </c>
@@ -3968,7 +3961,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2210409</v>
       </c>
@@ -3979,7 +3972,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2210508</v>
       </c>
@@ -3990,7 +3983,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2210607</v>
       </c>
@@ -4001,7 +3994,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2210623</v>
       </c>
@@ -4012,7 +4005,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2210631</v>
       </c>
@@ -4023,7 +4016,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2210656</v>
       </c>
@@ -4034,7 +4027,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2210706</v>
       </c>
@@ -4045,7 +4038,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2210805</v>
       </c>
@@ -4056,7 +4049,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2210904</v>
       </c>
@@ -4067,7 +4060,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2210938</v>
       </c>
@@ -4078,7 +4071,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2210953</v>
       </c>
@@ -4089,7 +4082,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2210979</v>
       </c>
@@ -4100,7 +4093,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>2211001</v>
       </c>
@@ -4111,7 +4104,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2211100</v>
       </c>
@@ -4122,7 +4115,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2211209</v>
       </c>
@@ -4133,7 +4126,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2211308</v>
       </c>
@@ -4144,7 +4137,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2211357</v>
       </c>
@@ -4155,7 +4148,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2211407</v>
       </c>
@@ -4166,7 +4159,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2211506</v>
       </c>
@@ -4177,7 +4170,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2211605</v>
       </c>
@@ -4188,7 +4181,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2211704</v>
       </c>
@@ -4198,9 +4191,6 @@
       <c r="C225" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B230" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
